--- a/REGULAR/OJT/NEW DONE/ESTIGOY, BEVERLYN ANN P..xlsx
+++ b/REGULAR/OJT/NEW DONE/ESTIGOY, BEVERLYN ANN P..xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0244714-3A38-4EA9-91F8-39309082AFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0434E49-0C84-42A5-8CD2-196882ED57AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="102">
   <si>
     <t>PERIOD</t>
   </si>
@@ -3119,8 +3119,8 @@
   <dimension ref="A2:K160"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4308" topLeftCell="A19" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
+      <pane ySplit="4308" topLeftCell="A125" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3281,7 +3281,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>60.599999999999994</v>
+        <v>61.849999999999994</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3291,7 +3291,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>60.599999999999994</v>
+        <v>61.849999999999994</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5859,13 +5859,15 @@
         <v>44986</v>
       </c>
       <c r="B130" s="20"/>
-      <c r="C130" s="13"/>
+      <c r="C130" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D130" s="39"/>
       <c r="E130" s="9"/>
       <c r="F130" s="20"/>
-      <c r="G130" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G130" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H130" s="39"/>
       <c r="I130" s="9"/>
@@ -5876,7 +5878,9 @@
       <c r="A131" s="40">
         <v>45017</v>
       </c>
-      <c r="B131" s="20"/>
+      <c r="B131" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="C131" s="13"/>
       <c r="D131" s="39"/>
       <c r="E131" s="9"/>
@@ -5888,7 +5892,9 @@
       <c r="H131" s="39"/>
       <c r="I131" s="9"/>
       <c r="J131" s="11"/>
-      <c r="K131" s="20"/>
+      <c r="K131" s="48">
+        <v>45019</v>
+      </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">

--- a/REGULAR/OJT/NEW DONE/ESTIGOY, BEVERLYN ANN P..xlsx
+++ b/REGULAR/OJT/NEW DONE/ESTIGOY, BEVERLYN ANN P..xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0434E49-0C84-42A5-8CD2-196882ED57AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="104">
   <si>
     <t>PERIOD</t>
   </si>
@@ -341,12 +340,18 @@
   </si>
   <si>
     <t>ESTIGOY, BEVERLYN ANN P.</t>
+  </si>
+  <si>
+    <t>FL(2-0-0)</t>
+  </si>
+  <si>
+    <t>5/19,20/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1203,7 +1208,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1246,7 +1251,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1310,7 +1315,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1370,7 +1375,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1436,7 +1441,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1499,7 +1504,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1597,7 +1602,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1656,7 +1661,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1721,7 +1726,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1764,7 +1769,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1839,7 +1844,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2025,7 +2030,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2091,7 +2096,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2149,7 +2154,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2215,7 +2220,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2271,7 +2276,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2346,7 +2351,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2389,7 +2394,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2455,7 +2460,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2511,7 +2516,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2609,7 +2614,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2672,7 +2677,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2738,25 +2743,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K160" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K161" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2768,13 +2773,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2783,14 +2788,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3094,7 +3099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3104,7 +3109,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3112,33 +3117,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K160"/>
+  <dimension ref="A2:K161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4308" topLeftCell="A125" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="B131" sqref="B131"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="3975" topLeftCell="A123" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3161,7 +3166,7 @@
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3179,7 +3184,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3199,7 +3204,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3207,7 +3212,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3220,7 +3225,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="49" t="s">
@@ -3237,7 +3242,7 @@
       <c r="J7" s="49"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3272,7 +3277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3281,7 +3286,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>61.849999999999994</v>
+        <v>61.099999999999994</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3291,12 +3296,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>61.849999999999994</v>
+        <v>63.099999999999994</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>44</v>
       </c>
@@ -3318,7 +3323,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>41883</v>
       </c>
@@ -3338,7 +3343,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>41913</v>
       </c>
@@ -3358,7 +3363,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>41944</v>
       </c>
@@ -3378,7 +3383,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>41974</v>
       </c>
@@ -3398,7 +3403,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
         <v>45</v>
       </c>
@@ -3416,7 +3421,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>42005</v>
       </c>
@@ -3436,7 +3441,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>42036</v>
       </c>
@@ -3456,7 +3461,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>42064</v>
       </c>
@@ -3476,7 +3481,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="15"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>42095</v>
       </c>
@@ -3496,7 +3501,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>42125</v>
       </c>
@@ -3516,7 +3521,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>42156</v>
       </c>
@@ -3536,7 +3541,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>42186</v>
       </c>
@@ -3556,7 +3561,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>42217</v>
       </c>
@@ -3576,7 +3581,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>42248</v>
       </c>
@@ -3596,7 +3601,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>42278</v>
       </c>
@@ -3616,7 +3621,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>42309</v>
       </c>
@@ -3636,7 +3641,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>42339</v>
       </c>
@@ -3660,7 +3665,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="47" t="s">
         <v>47</v>
       </c>
@@ -3678,7 +3683,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>42370</v>
       </c>
@@ -3704,7 +3709,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>42401</v>
       </c>
@@ -3724,7 +3729,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>42430</v>
       </c>
@@ -3750,7 +3755,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>42461</v>
       </c>
@@ -3776,7 +3781,7 @@
         <v>42508</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>42491</v>
       </c>
@@ -3796,7 +3801,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>42522</v>
       </c>
@@ -3816,7 +3821,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>42552</v>
       </c>
@@ -3842,7 +3847,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>42583</v>
       </c>
@@ -3866,7 +3871,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>42614</v>
       </c>
@@ -3886,7 +3891,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>42644</v>
       </c>
@@ -3906,7 +3911,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>42675</v>
       </c>
@@ -3932,7 +3937,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>42705</v>
       </c>
@@ -3958,7 +3963,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="47" t="s">
         <v>59</v>
       </c>
@@ -3976,7 +3981,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>42736</v>
       </c>
@@ -3996,7 +4001,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>42767</v>
       </c>
@@ -4022,7 +4027,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>42795</v>
       </c>
@@ -4046,7 +4051,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>42826</v>
       </c>
@@ -4066,7 +4071,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>42856</v>
       </c>
@@ -4086,7 +4091,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>42887</v>
       </c>
@@ -4112,7 +4117,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>64</v>
@@ -4134,7 +4139,7 @@
         <v>42912</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>65</v>
@@ -4156,7 +4161,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>42917</v>
       </c>
@@ -4182,7 +4187,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>69</v>
@@ -4204,7 +4209,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>42948</v>
       </c>
@@ -4228,7 +4233,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>42979</v>
       </c>
@@ -4254,7 +4259,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>43009</v>
       </c>
@@ -4274,7 +4279,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>43040</v>
       </c>
@@ -4294,7 +4299,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>43070</v>
       </c>
@@ -4320,7 +4325,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="47" t="s">
         <v>76</v>
       </c>
@@ -4338,7 +4343,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>43101</v>
       </c>
@@ -4358,7 +4363,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>43132</v>
       </c>
@@ -4378,7 +4383,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>43160</v>
       </c>
@@ -4398,7 +4403,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>43191</v>
       </c>
@@ -4418,7 +4423,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>43221</v>
       </c>
@@ -4442,7 +4447,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>43252</v>
       </c>
@@ -4462,7 +4467,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>43282</v>
       </c>
@@ -4488,7 +4493,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>77</v>
@@ -4508,7 +4513,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>43313</v>
       </c>
@@ -4528,7 +4533,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>43344</v>
       </c>
@@ -4548,7 +4553,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>43374</v>
       </c>
@@ -4574,7 +4579,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>43405</v>
       </c>
@@ -4594,7 +4599,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>43435</v>
       </c>
@@ -4618,7 +4623,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="47" t="s">
         <v>82</v>
       </c>
@@ -4636,7 +4641,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>43466</v>
       </c>
@@ -4656,7 +4661,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>43497</v>
       </c>
@@ -4676,7 +4681,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>43525</v>
       </c>
@@ -4696,7 +4701,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>43556</v>
       </c>
@@ -4716,7 +4721,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>43586</v>
       </c>
@@ -4740,7 +4745,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>43617</v>
       </c>
@@ -4760,7 +4765,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>43647</v>
       </c>
@@ -4780,7 +4785,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>43678</v>
       </c>
@@ -4800,7 +4805,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>43709</v>
       </c>
@@ -4826,7 +4831,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>43739</v>
       </c>
@@ -4852,7 +4857,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>69</v>
@@ -4874,7 +4879,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>43770</v>
       </c>
@@ -4900,7 +4905,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>43800</v>
       </c>
@@ -4920,7 +4925,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="47" t="s">
         <v>88</v>
       </c>
@@ -4938,7 +4943,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>43831</v>
       </c>
@@ -4958,7 +4963,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>43862</v>
       </c>
@@ -4978,7 +4983,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>43891</v>
       </c>
@@ -4998,7 +5003,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>43922</v>
       </c>
@@ -5024,7 +5029,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>62</v>
@@ -5046,7 +5051,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>43952</v>
       </c>
@@ -5066,7 +5071,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>43983</v>
       </c>
@@ -5092,7 +5097,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>44013</v>
       </c>
@@ -5112,7 +5117,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>44044</v>
       </c>
@@ -5132,7 +5137,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>44075</v>
       </c>
@@ -5152,7 +5157,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>44105</v>
       </c>
@@ -5172,7 +5177,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>44136</v>
       </c>
@@ -5192,7 +5197,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>44166</v>
       </c>
@@ -5212,7 +5217,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="47" t="s">
         <v>94</v>
       </c>
@@ -5230,7 +5235,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>44197</v>
       </c>
@@ -5250,7 +5255,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>44228</v>
       </c>
@@ -5270,7 +5275,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>44256</v>
       </c>
@@ -5290,7 +5295,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>44287</v>
       </c>
@@ -5310,7 +5315,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>44317</v>
       </c>
@@ -5336,7 +5341,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>77</v>
@@ -5356,7 +5361,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>60</v>
@@ -5376,7 +5381,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>44348</v>
       </c>
@@ -5396,7 +5401,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>44378</v>
       </c>
@@ -5416,7 +5421,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>44409</v>
       </c>
@@ -5440,7 +5445,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>44440</v>
       </c>
@@ -5460,7 +5465,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>44470</v>
       </c>
@@ -5480,7 +5485,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>44501</v>
       </c>
@@ -5500,7 +5505,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>44531</v>
       </c>
@@ -5520,7 +5525,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="47" t="s">
         <v>98</v>
       </c>
@@ -5538,7 +5543,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>44562</v>
       </c>
@@ -5558,7 +5563,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>44593</v>
       </c>
@@ -5578,7 +5583,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>44621</v>
       </c>
@@ -5598,7 +5603,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>44652</v>
       </c>
@@ -5618,7 +5623,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>44682</v>
       </c>
@@ -5638,7 +5643,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>44713</v>
       </c>
@@ -5658,7 +5663,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>44743</v>
       </c>
@@ -5678,7 +5683,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>44774</v>
       </c>
@@ -5704,7 +5709,7 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>44805</v>
       </c>
@@ -5724,7 +5729,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>44835</v>
       </c>
@@ -5744,7 +5749,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>44866</v>
       </c>
@@ -5770,7 +5775,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>44896</v>
       </c>
@@ -5790,7 +5795,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="47" t="s">
         <v>99</v>
       </c>
@@ -5808,7 +5813,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>44927</v>
       </c>
@@ -5834,7 +5839,7 @@
         <v>44949</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>44958</v>
       </c>
@@ -5854,7 +5859,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>44986</v>
       </c>
@@ -5874,20 +5879,22 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>45017</v>
       </c>
       <c r="B131" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C131" s="13"/>
+      <c r="C131" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D131" s="39"/>
       <c r="E131" s="9"/>
       <c r="F131" s="20"/>
-      <c r="G131" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G131" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H131" s="39"/>
       <c r="I131" s="9"/>
@@ -5896,11 +5903,13 @@
         <v>45019</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>45047</v>
       </c>
-      <c r="B132" s="20"/>
+      <c r="B132" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="C132" s="13"/>
       <c r="D132" s="39"/>
       <c r="E132" s="9"/>
@@ -5912,15 +5921,19 @@
       <c r="H132" s="39"/>
       <c r="I132" s="9"/>
       <c r="J132" s="11"/>
-      <c r="K132" s="20"/>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B133" s="20"/>
+      <c r="K132" s="48">
+        <v>45064</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="40"/>
+      <c r="B133" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="C133" s="13"/>
-      <c r="D133" s="39"/>
+      <c r="D133" s="39">
+        <v>2</v>
+      </c>
       <c r="E133" s="9"/>
       <c r="F133" s="20"/>
       <c r="G133" s="13" t="str">
@@ -5930,11 +5943,13 @@
       <c r="H133" s="39"/>
       <c r="I133" s="9"/>
       <c r="J133" s="11"/>
-      <c r="K133" s="20"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K133" s="48" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5950,9 +5965,9 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5968,9 +5983,9 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5986,45 +6001,45 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B137" s="20"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="39"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H137" s="39"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="20"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="40">
         <v>45200</v>
       </c>
-      <c r="B137" s="15"/>
-      <c r="C137" s="41"/>
-      <c r="D137" s="42"/>
-      <c r="E137" s="9"/>
-      <c r="F137" s="15"/>
-      <c r="G137" s="41" t="str">
+      <c r="B138" s="15"/>
+      <c r="C138" s="41"/>
+      <c r="D138" s="42"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="41" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H137" s="42"/>
-      <c r="I137" s="9"/>
-      <c r="J137" s="12"/>
-      <c r="K137" s="15"/>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A138" s="40">
+      <c r="H138" s="42"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="12"/>
+      <c r="K138" s="15"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" s="40">
         <v>45231</v>
-      </c>
-      <c r="B138" s="20"/>
-      <c r="C138" s="13"/>
-      <c r="D138" s="39"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="20"/>
-      <c r="G138" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H138" s="39"/>
-      <c r="I138" s="9"/>
-      <c r="J138" s="11"/>
-      <c r="K138" s="20"/>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A139" s="40">
-        <v>45261</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -6040,9 +6055,9 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -6058,9 +6073,9 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -6076,9 +6091,9 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -6094,9 +6109,9 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -6112,9 +6127,9 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -6130,9 +6145,9 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -6148,9 +6163,9 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -6166,9 +6181,9 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -6184,9 +6199,9 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -6202,9 +6217,9 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -6220,9 +6235,9 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -6238,9 +6253,9 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -6256,9 +6271,9 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -6274,9 +6289,9 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -6292,9 +6307,9 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -6310,9 +6325,9 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -6328,9 +6343,9 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -6346,9 +6361,9 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -6364,9 +6379,9 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -6382,9 +6397,9 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -6400,9 +6415,9 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -6417,6 +6432,24 @@
       <c r="I160" s="9"/>
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" s="40">
+        <v>45901</v>
+      </c>
+      <c r="B161" s="20"/>
+      <c r="C161" s="13"/>
+      <c r="D161" s="39"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="20"/>
+      <c r="G161" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H161" s="39"/>
+      <c r="I161" s="9"/>
+      <c r="J161" s="11"/>
+      <c r="K161" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6433,10 +6466,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6459,7 +6492,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -6467,21 +6500,21 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -6494,7 +6527,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -6523,7 +6556,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -6543,17 +6576,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -6574,7 +6607,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -6601,7 +6634,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -6627,7 +6660,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -6653,7 +6686,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -6679,7 +6712,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -6705,7 +6738,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -6731,7 +6764,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -6757,7 +6790,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -6783,7 +6816,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -6803,7 +6836,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -6823,7 +6856,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -6843,7 +6876,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -6864,7 +6897,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6885,7 +6918,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6906,7 +6939,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6927,7 +6960,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6948,7 +6981,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6969,7 +7002,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6990,7 +7023,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7011,7 +7044,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -7032,7 +7065,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -7053,7 +7086,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -7074,7 +7107,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -7095,7 +7128,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7116,7 +7149,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7137,7 +7170,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7158,7 +7191,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -7179,7 +7212,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -7200,7 +7233,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -7221,7 +7254,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -7242,7 +7275,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -7263,7 +7296,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -7272,7 +7305,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -7281,7 +7314,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -7290,7 +7323,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -7299,7 +7332,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -7308,7 +7341,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7317,7 +7350,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -7326,7 +7359,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -7335,7 +7368,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -7344,7 +7377,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -7353,7 +7386,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -7362,7 +7395,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -7371,7 +7404,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -7380,7 +7413,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -7389,7 +7422,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -7398,7 +7431,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -7407,7 +7440,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -7416,7 +7449,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -7425,7 +7458,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -7434,7 +7467,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -7443,7 +7476,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -7452,7 +7485,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -7461,7 +7494,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -7470,7 +7503,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -7479,7 +7512,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -7488,7 +7521,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -7497,7 +7530,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -7506,7 +7539,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -7515,7 +7548,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -7524,7 +7557,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
